--- a/data/2022-04-05 figur5_inntekt.xlsx
+++ b/data/2022-04-05 figur5_inntekt.xlsx
@@ -1,32 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L158017\OneDrive - NAV\Documents\R-prosjekter\maxKG\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://navno-my.sharepoint.com/personal/eirik_lamoy_nav_no/Documents/Documents/R-prosjekter/maxKG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E708512A-78CF-4167-BECC-544FDD9F7125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{E708512A-78CF-4167-BECC-544FDD9F7125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E56BDFB8-8271-4621-972E-804DF586517D}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="255" windowWidth="21570" windowHeight="15600" activeTab="1" xr2:uid="{9FE6F614-9638-4A91-B1EB-2ECEF3AE261D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9FE6F614-9638-4A91-B1EB-2ECEF3AE261D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -925,7 +921,7 @@
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2219,6 +2215,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{C039DFCF-2C57-451D-9015-625C90458344}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2227,13 +2224,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D54994-C2F6-419C-A6A2-2CCDD2837BC4}">
   <dimension ref="A1:F1093"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
